--- a/腳本/Character.xlsx
+++ b/腳本/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\腳本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\腳本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E8D2C-CC4C-40A5-BF69-10D7B8E10EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C7844-A883-4C8F-9511-50446DD25121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>iId</t>
   </si>
@@ -518,14 +518,22 @@
   <si>
     <t>角色範本Id</t>
   </si>
+  <si>
+    <t>szURL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -674,10 +682,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1076,35 +1084,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="21" width="18.125" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="16" max="21" width="18.09765625" customWidth="1"/>
+    <col min="22" max="22" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1168,8 +1176,11 @@
       <c r="U1" s="15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="58.5" customHeight="1">
+      <c r="V1" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="58.5" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>97</v>
       </c>
@@ -1233,8 +1244,11 @@
       <c r="U2" s="17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.5">
+      <c r="V2" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.2">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -1286,7 +1300,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:22" ht="16.2">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5">
+    <row r="5" spans="1:22" ht="16.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1390,7 +1404,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5">
+    <row r="6" spans="1:22" ht="16.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1430,7 +1444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5">
+    <row r="7" spans="1:22" ht="16.2">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1450,7 +1464,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5">
+    <row r="8" spans="1:22" ht="16.2">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -1477,7 +1491,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5">
+    <row r="9" spans="1:22" ht="16.2">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -1504,7 +1518,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5">
+    <row r="10" spans="1:22" ht="16.2">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -1531,7 +1545,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5">
+    <row r="11" spans="1:22" ht="16.2">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -1558,7 +1572,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5">
+    <row r="12" spans="1:22" ht="16.2">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
@@ -1575,7 +1589,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5">
+    <row r="13" spans="1:22" ht="16.2">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
@@ -1592,7 +1606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5">
+    <row r="14" spans="1:22" ht="16.2">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
@@ -1609,7 +1623,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5">
+    <row r="15" spans="1:22" ht="16.2">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
@@ -1626,7 +1640,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5">
+    <row r="16" spans="1:22" ht="16.2">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
@@ -1643,7 +1657,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5">
+    <row r="17" spans="1:20" ht="16.2">
       <c r="A17" s="4">
         <v>1014</v>
       </c>
@@ -1660,7 +1674,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5">
+    <row r="18" spans="1:20" ht="16.2">
       <c r="A18" s="4">
         <v>1015</v>
       </c>
@@ -1677,7 +1691,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5">
+    <row r="19" spans="1:20" ht="16.2">
       <c r="A19" s="4">
         <v>1016</v>
       </c>
@@ -1694,7 +1708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5">
+    <row r="20" spans="1:20" ht="16.2">
       <c r="A20" s="4">
         <v>1017</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5">
+    <row r="21" spans="1:20" ht="16.2">
       <c r="A21" s="4">
         <v>1018</v>
       </c>
@@ -1728,7 +1742,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5">
+    <row r="22" spans="1:20" ht="16.2">
       <c r="A22" s="4">
         <v>1019</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5">
+    <row r="23" spans="1:20" ht="16.2">
       <c r="A23" s="4">
         <v>1020</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" spans="1:20" ht="16.2">
       <c r="A24" s="4">
         <v>1021</v>
       </c>
@@ -1779,7 +1793,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
+    <row r="25" spans="1:20" ht="16.2">
       <c r="A25" s="4">
         <v>1022</v>
       </c>
@@ -1796,7 +1810,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5">
+    <row r="26" spans="1:20" ht="16.2">
       <c r="A26" s="4">
         <v>1023</v>
       </c>
@@ -1813,7 +1827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5">
+    <row r="27" spans="1:20" ht="16.2">
       <c r="A27" s="4">
         <v>1024</v>
       </c>
@@ -1830,7 +1844,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.2">
       <c r="A28" s="4">
         <v>1025</v>
       </c>
@@ -1847,7 +1861,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5">
+    <row r="29" spans="1:20" ht="16.2">
       <c r="A29" s="4">
         <v>1026</v>
       </c>
@@ -1864,7 +1878,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
+    <row r="30" spans="1:20" ht="16.2">
       <c r="A30" s="4">
         <v>1027</v>
       </c>
@@ -1881,7 +1895,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5">
+    <row r="31" spans="1:20" ht="16.2">
       <c r="A31" s="4">
         <v>1028</v>
       </c>
@@ -1898,7 +1912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
+    <row r="32" spans="1:20" ht="16.2">
       <c r="A32" s="4">
         <v>1029</v>
       </c>
@@ -1915,7 +1929,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5">
+    <row r="33" spans="1:20" ht="16.2">
       <c r="A33" s="4">
         <v>1030</v>
       </c>
@@ -1932,7 +1946,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5">
+    <row r="34" spans="1:20" ht="16.2">
       <c r="A34" s="4">
         <v>1031</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5">
+    <row r="35" spans="1:20" ht="16.2">
       <c r="A35" s="4">
         <v>1032</v>
       </c>
@@ -1966,7 +1980,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5">
+    <row r="36" spans="1:20" ht="16.2">
       <c r="A36" s="4">
         <v>1033</v>
       </c>
@@ -1983,7 +1997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5">
+    <row r="37" spans="1:20" ht="16.2">
       <c r="A37" s="4">
         <v>1034</v>
       </c>
@@ -2000,7 +2014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16.2">
       <c r="A38" s="4">
         <v>1035</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.2">
       <c r="A39" s="4">
         <v>1036</v>
       </c>
@@ -2034,7 +2048,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.2">
       <c r="A40" s="4">
         <v>1037</v>
       </c>
@@ -2051,7 +2065,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.2">
       <c r="A41" s="4">
         <v>1038</v>
       </c>
@@ -2068,7 +2082,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.2">
       <c r="A42" s="4">
         <v>1039</v>
       </c>
@@ -2085,7 +2099,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.2">
       <c r="A43" s="4">
         <v>1040</v>
       </c>
@@ -2102,7 +2116,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.2">
       <c r="A44" s="4">
         <v>1041</v>
       </c>
@@ -2119,7 +2133,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.2">
       <c r="A45" s="4">
         <v>1042</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.2">
       <c r="A46" s="4">
         <v>1043</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.2">
       <c r="A47" s="4">
         <v>1044</v>
       </c>
@@ -2170,7 +2184,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.2">
       <c r="A48" s="4">
         <v>1045</v>
       </c>
@@ -2187,7 +2201,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5">
+    <row r="49" spans="1:20" ht="16.2">
       <c r="A49" s="4">
         <v>1046</v>
       </c>
@@ -2204,7 +2218,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
+    <row r="50" spans="1:20" ht="16.2">
       <c r="A50" s="4">
         <v>1047</v>
       </c>
@@ -2221,7 +2235,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5">
+    <row r="51" spans="1:20" ht="16.2">
       <c r="A51" s="4">
         <v>1048</v>
       </c>
@@ -2238,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.2">
       <c r="A52" s="4">
         <v>1049</v>
       </c>
@@ -2255,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5">
+    <row r="53" spans="1:20" ht="16.2">
       <c r="A53" s="4">
         <v>1050</v>
       </c>
@@ -2272,7 +2286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.2">
       <c r="A54">
         <v>1051</v>
       </c>
@@ -2289,7 +2303,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5">
+    <row r="55" spans="1:20" ht="16.2">
       <c r="T55" s="16"/>
     </row>
   </sheetData>

--- a/腳本/Character.xlsx
+++ b/腳本/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\腳本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0C7844-A883-4C8F-9511-50446DD25121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70E70B-BB18-4B99-A33B-DAEA3F18E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <authors>
     <author>Tony</author>
     <author>user-23</author>
+    <author>Shuo Yue</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D96EEB3A-3206-41A6-8CCA-F039E0E07A58}">
@@ -186,7 +187,129 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-填寫動畫Clip名稱，可填複數，以；區分</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>填寫動畫</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clip</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>名稱，可填複數，以；區分
+動畫1;動畫2;動畫3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="2" shapeId="0" xr:uid="{924B1FAD-B5B7-4038-9580-BBC9138EFB33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Judy:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>填寫動畫音效名稱，可填複數，以；區分
+音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效和動畫順序相同
+音效預先放置在Resource底下</t>
         </r>
       </text>
     </comment>
@@ -195,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>iId</t>
   </si>
@@ -504,9 +627,6 @@
     <t>szAnimGroup</t>
   </si>
   <si>
-    <t>物件預覽動畫</t>
-  </si>
-  <si>
     <t>iDisplayResource</t>
   </si>
   <si>
@@ -524,6 +644,18 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件預覽動畫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件動畫音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szAudioSource</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +667,7 @@
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -601,6 +733,20 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1084,11 +1230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V6" sqref="V6"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1108,11 +1254,11 @@
     <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="21" width="18.09765625" customWidth="1"/>
-    <col min="22" max="22" width="11.59765625" customWidth="1"/>
+    <col min="16" max="22" width="18.09765625" customWidth="1"/>
+    <col min="23" max="23" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>89</v>
@@ -1177,12 +1323,15 @@
         <v>92</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="58.5" customHeight="1">
+        <v>101</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="58.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>18</v>
@@ -1242,13 +1391,16 @@
         <v>37</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="16.2">
+        <v>100</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.2">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
@@ -1259,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>15</v>
@@ -1300,7 +1452,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="16.2">
+    <row r="4" spans="1:23" ht="16.2">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
@@ -1311,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
@@ -1352,7 +1504,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.2">
+    <row r="5" spans="1:23" ht="16.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
@@ -1363,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -1404,7 +1556,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="16.2">
+    <row r="6" spans="1:23" ht="16.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
@@ -1415,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -1444,7 +1596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="16.2">
+    <row r="7" spans="1:23" ht="16.2">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
@@ -1455,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1464,7 +1616,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="16.2">
+    <row r="8" spans="1:23" ht="16.2">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -1475,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="12"/>
@@ -1491,7 +1643,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="16.2">
+    <row r="9" spans="1:23" ht="16.2">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -1502,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="12"/>
       <c r="G9" s="12"/>
@@ -1518,7 +1670,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="16.2">
+    <row r="10" spans="1:23" ht="16.2">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -1529,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="12"/>
       <c r="G10" s="12"/>
@@ -1545,7 +1697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="16.2">
+    <row r="11" spans="1:23" ht="16.2">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
@@ -1556,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="12"/>
@@ -1572,7 +1724,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="16.2">
+    <row r="12" spans="1:23" ht="16.2">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
@@ -1583,13 +1735,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="16">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="16.2">
+    <row r="13" spans="1:23" ht="16.2">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
@@ -1600,13 +1752,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T13" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="16.2">
+    <row r="14" spans="1:23" ht="16.2">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
@@ -1617,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T14" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="16.2">
+    <row r="15" spans="1:23" ht="16.2">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
@@ -1634,13 +1786,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T15" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="16.2">
+    <row r="16" spans="1:23" ht="16.2">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
@@ -1651,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T16" s="16">
         <v>0.1</v>
@@ -1668,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T17" s="16">
         <v>0.5</v>
@@ -1685,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T18" s="16">
         <v>0.3</v>
@@ -1702,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T19" s="16">
         <v>0.5</v>
@@ -1719,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T20" s="16">
         <v>0.5</v>
@@ -1736,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T21" s="16">
         <v>0.03</v>
@@ -1753,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T22" s="16">
         <v>0.03</v>
@@ -1770,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T23" s="16">
         <v>0.1</v>
@@ -1787,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T24" s="16">
         <v>0.1</v>
@@ -1804,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T25" s="16">
         <v>0.1</v>
@@ -1821,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T26" s="16">
         <v>0.1</v>
@@ -1838,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T27" s="16">
         <v>0.1</v>
@@ -1855,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T28" s="16">
         <v>0.1</v>
@@ -1872,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T29" s="16">
         <v>0.1</v>
@@ -1889,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T30" s="16">
         <v>0.08</v>
@@ -1906,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T31" s="16">
         <v>0.5</v>
@@ -1923,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T32" s="16">
         <v>0.5</v>
@@ -1940,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T33" s="16">
         <v>0.3</v>
@@ -1957,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T34" s="16">
         <v>0.3</v>
@@ -1974,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T35" s="16">
         <v>0.1</v>
@@ -1991,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T36" s="16">
         <v>0.1</v>
@@ -2008,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T37" s="16">
         <v>0.1</v>
@@ -2025,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T38" s="16">
         <v>0.08</v>
@@ -2042,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T39" s="16">
         <v>0.3</v>
@@ -2059,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T40" s="16">
         <v>0.6</v>
@@ -2076,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T41" s="16">
         <v>0.3</v>
@@ -2093,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T42" s="16">
         <v>0.6</v>
@@ -2110,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T43" s="16">
         <v>0.6</v>
@@ -2127,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T44" s="16">
         <v>0.1</v>
@@ -2144,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T45" s="16">
         <v>0.1</v>
@@ -2161,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T46" s="16">
         <v>0.7</v>
@@ -2178,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T47" s="16">
         <v>0.7</v>
@@ -2195,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T48" s="16">
         <v>1.2</v>
@@ -2212,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T49" s="16">
         <v>1.5</v>
@@ -2229,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T50" s="16">
         <v>1.2</v>
@@ -2246,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T51" s="16">
         <v>1</v>
@@ -2263,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T52" s="16">
         <v>1</v>
@@ -2280,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T53" s="16">
         <v>0.5</v>
@@ -2291,13 +2443,13 @@
         <v>1051</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T54" s="16">
         <v>0.6</v>

--- a/腳本/Character.xlsx
+++ b/腳本/Character.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\腳本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA70E70B-BB18-4B99-A33B-DAEA3F18E573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565F4E9D-0250-4B29-AC20-B060DC278107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -318,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="143">
   <si>
     <t>iId</t>
   </si>
@@ -471,15 +481,9 @@
     <t>Fire_Station</t>
   </si>
   <si>
-    <t>House_2</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>Albino</t>
-  </si>
-  <si>
     <t>Grey</t>
   </si>
   <si>
@@ -495,9 +499,6 @@
     <t>Free_Racing_Car_Red</t>
   </si>
   <si>
-    <t>SlimePBR</t>
-  </si>
-  <si>
     <t>TurtleShellPBR</t>
   </si>
   <si>
@@ -605,12 +606,6 @@
   </si>
   <si>
     <t>bed_2</t>
-  </si>
-  <si>
-    <t>ChestMonsterPBR</t>
-  </si>
-  <si>
-    <t>BeholderPBR</t>
   </si>
   <si>
     <t>szDisplayAB</t>
@@ -656,6 +651,190 @@
   </si>
   <si>
     <t>szAudioSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner_sofa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChestMonsterPBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chestmonsterpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeholderPBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beholderpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>untitled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner_building</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>House_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>albino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpcharacter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_racing_car_red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlimePBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slimepbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtleshellpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flying_insect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>super_spitfire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chomper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grenadier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankfree_yel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge05_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge03_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationmedium01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak74</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uzi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpg7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m249</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4_8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -838,7 +1017,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -881,6 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1232,9 +1412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1311,27 +1491,27 @@
         <v>16</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>38</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="58.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>18</v>
@@ -1382,22 +1562,22 @@
         <v>31</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="W2" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16.2">
@@ -1405,13 +1585,13 @@
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>95</v>
+      <c r="D3" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>15</v>
@@ -1457,13 +1637,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
@@ -1509,13 +1689,13 @@
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -1561,13 +1741,13 @@
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -1601,13 +1781,13 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1626,8 +1806,8 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>95</v>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="12"/>
@@ -1653,8 +1833,8 @@
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>95</v>
+      <c r="D9" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="12"/>
       <c r="G9" s="12"/>
@@ -1680,8 +1860,8 @@
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>95</v>
+      <c r="D10" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="12"/>
       <c r="G10" s="12"/>
@@ -1702,13 +1882,13 @@
         <v>1008</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="12"/>
@@ -1729,13 +1909,13 @@
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>95</v>
+      <c r="D12" t="s">
+        <v>108</v>
       </c>
       <c r="T12" s="16">
         <v>0.05</v>
@@ -1746,13 +1926,13 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="T13" s="16">
         <v>0.1</v>
@@ -1763,13 +1943,13 @@
         <v>1011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>95</v>
+      <c r="D14" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="T14" s="16">
         <v>0.1</v>
@@ -1780,13 +1960,13 @@
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>95</v>
+      <c r="D15" t="s">
+        <v>112</v>
       </c>
       <c r="T15" s="16">
         <v>0.1</v>
@@ -1797,13 +1977,13 @@
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>95</v>
+      <c r="D16" t="s">
+        <v>113</v>
       </c>
       <c r="T16" s="16">
         <v>0.1</v>
@@ -1814,13 +1994,13 @@
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>95</v>
+      <c r="D17" t="s">
+        <v>114</v>
       </c>
       <c r="T17" s="16">
         <v>0.5</v>
@@ -1831,13 +2011,13 @@
         <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>95</v>
+      <c r="D18" t="s">
+        <v>115</v>
       </c>
       <c r="T18" s="16">
         <v>0.3</v>
@@ -1848,13 +2028,13 @@
         <v>1016</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="T19" s="16">
         <v>0.5</v>
@@ -1865,13 +2045,13 @@
         <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>95</v>
+      <c r="D20" t="s">
+        <v>118</v>
       </c>
       <c r="T20" s="16">
         <v>0.5</v>
@@ -1882,13 +2062,13 @@
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>95</v>
+      <c r="D21" t="s">
+        <v>119</v>
       </c>
       <c r="T21" s="16">
         <v>0.03</v>
@@ -1899,13 +2079,13 @@
         <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>95</v>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
       <c r="T22" s="16">
         <v>0.03</v>
@@ -1916,13 +2096,13 @@
         <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>95</v>
+      <c r="D23" t="s">
+        <v>121</v>
       </c>
       <c r="T23" s="16">
         <v>0.1</v>
@@ -1933,13 +2113,13 @@
         <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>95</v>
+      <c r="D24" t="s">
+        <v>122</v>
       </c>
       <c r="T24" s="16">
         <v>0.1</v>
@@ -1950,13 +2130,13 @@
         <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>95</v>
+      <c r="D25" t="s">
+        <v>123</v>
       </c>
       <c r="T25" s="16">
         <v>0.1</v>
@@ -1967,13 +2147,13 @@
         <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>95</v>
+      <c r="D26" t="s">
+        <v>124</v>
       </c>
       <c r="T26" s="16">
         <v>0.1</v>
@@ -1984,13 +2164,13 @@
         <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>95</v>
+      <c r="D27" t="s">
+        <v>125</v>
       </c>
       <c r="T27" s="16">
         <v>0.1</v>
@@ -2001,13 +2181,13 @@
         <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>95</v>
+      <c r="D28" t="s">
+        <v>126</v>
       </c>
       <c r="T28" s="16">
         <v>0.1</v>
@@ -2018,13 +2198,13 @@
         <v>1026</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>95</v>
+      <c r="D29" t="s">
+        <v>127</v>
       </c>
       <c r="T29" s="16">
         <v>0.1</v>
@@ -2035,13 +2215,13 @@
         <v>1027</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>95</v>
+      <c r="D30" t="s">
+        <v>128</v>
       </c>
       <c r="T30" s="16">
         <v>0.08</v>
@@ -2052,13 +2232,13 @@
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>95</v>
+      <c r="D31" t="s">
+        <v>129</v>
       </c>
       <c r="T31" s="16">
         <v>0.5</v>
@@ -2069,13 +2249,13 @@
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>95</v>
+      <c r="D32" t="s">
+        <v>130</v>
       </c>
       <c r="T32" s="16">
         <v>0.5</v>
@@ -2086,13 +2266,13 @@
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>95</v>
+      <c r="D33" t="s">
+        <v>131</v>
       </c>
       <c r="T33" s="16">
         <v>0.3</v>
@@ -2103,13 +2283,13 @@
         <v>1031</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>95</v>
+      <c r="D34" t="s">
+        <v>132</v>
       </c>
       <c r="T34" s="16">
         <v>0.3</v>
@@ -2120,13 +2300,13 @@
         <v>1032</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>95</v>
+      <c r="D35" t="s">
+        <v>133</v>
       </c>
       <c r="T35" s="16">
         <v>0.1</v>
@@ -2137,13 +2317,13 @@
         <v>1033</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>95</v>
+      <c r="D36" t="s">
+        <v>135</v>
       </c>
       <c r="T36" s="16">
         <v>0.1</v>
@@ -2154,13 +2334,13 @@
         <v>1034</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>95</v>
+      <c r="D37" t="s">
+        <v>134</v>
       </c>
       <c r="T37" s="16">
         <v>0.1</v>
@@ -2171,13 +2351,13 @@
         <v>1035</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>95</v>
+      <c r="D38" t="s">
+        <v>136</v>
       </c>
       <c r="T38" s="16">
         <v>0.08</v>
@@ -2188,13 +2368,13 @@
         <v>1036</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>95</v>
+      <c r="D39" t="s">
+        <v>137</v>
       </c>
       <c r="T39" s="16">
         <v>0.3</v>
@@ -2205,13 +2385,13 @@
         <v>1037</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>95</v>
+      <c r="D40" t="s">
+        <v>68</v>
       </c>
       <c r="T40" s="16">
         <v>0.6</v>
@@ -2222,13 +2402,13 @@
         <v>1038</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>95</v>
+      <c r="D41" t="s">
+        <v>69</v>
       </c>
       <c r="T41" s="16">
         <v>0.3</v>
@@ -2239,13 +2419,13 @@
         <v>1039</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>95</v>
+      <c r="D42" t="s">
+        <v>70</v>
       </c>
       <c r="T42" s="16">
         <v>0.6</v>
@@ -2256,13 +2436,13 @@
         <v>1040</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>95</v>
+      <c r="D43" t="s">
+        <v>71</v>
       </c>
       <c r="T43" s="16">
         <v>0.6</v>
@@ -2273,13 +2453,13 @@
         <v>1041</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>95</v>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
       <c r="T44" s="16">
         <v>0.1</v>
@@ -2290,13 +2470,13 @@
         <v>1042</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>95</v>
+      <c r="D45" t="s">
+        <v>73</v>
       </c>
       <c r="T45" s="16">
         <v>0.1</v>
@@ -2307,13 +2487,13 @@
         <v>1043</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>95</v>
+      <c r="D46" t="s">
+        <v>74</v>
       </c>
       <c r="T46" s="16">
         <v>0.7</v>
@@ -2324,13 +2504,13 @@
         <v>1044</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>95</v>
+      <c r="D47" t="s">
+        <v>75</v>
       </c>
       <c r="T47" s="16">
         <v>0.7</v>
@@ -2341,13 +2521,13 @@
         <v>1045</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>95</v>
+      <c r="D48" t="s">
+        <v>138</v>
       </c>
       <c r="T48" s="16">
         <v>1.2</v>
@@ -2358,13 +2538,13 @@
         <v>1046</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>95</v>
+      <c r="D49" t="s">
+        <v>139</v>
       </c>
       <c r="T49" s="16">
         <v>1.5</v>
@@ -2375,13 +2555,13 @@
         <v>1047</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>95</v>
+      <c r="D50" t="s">
+        <v>140</v>
       </c>
       <c r="T50" s="16">
         <v>1.2</v>
@@ -2392,13 +2572,13 @@
         <v>1048</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>95</v>
+      <c r="D51" t="s">
+        <v>141</v>
       </c>
       <c r="T51" s="16">
         <v>1</v>
@@ -2409,13 +2589,13 @@
         <v>1049</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>95</v>
+      <c r="D52" t="s">
+        <v>142</v>
       </c>
       <c r="T52" s="16">
         <v>1</v>
@@ -2426,13 +2606,13 @@
         <v>1050</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>95</v>
+      <c r="D53" t="s">
+        <v>81</v>
       </c>
       <c r="T53" s="16">
         <v>0.5</v>
@@ -2443,13 +2623,13 @@
         <v>1051</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="T54" s="16">
         <v>0.6</v>

--- a/腳本/Character.xlsx
+++ b/腳本/Character.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProjects\MR\腳本\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\judy2\OneDrive\Desktop\practice\5GMR\5GMR_Project\腳本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E8D2C-CC4C-40A5-BF69-10D7B8E10EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565F4E9D-0250-4B29-AC20-B060DC278107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2130" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,6 +34,7 @@
   <authors>
     <author>Tony</author>
     <author>user-23</author>
+    <author>Shuo Yue</author>
   </authors>
   <commentList>
     <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D96EEB3A-3206-41A6-8CCA-F039E0E07A58}">
@@ -186,7 +197,129 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-填寫動畫Clip名稱，可填複數，以；區分</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>填寫動畫</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Clip</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>名稱，可填複數，以；區分
+動畫1;動畫2;動畫3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="2" shapeId="0" xr:uid="{924B1FAD-B5B7-4038-9580-BBC9138EFB33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Judy:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>填寫動畫音效名稱，可填複數，以；區分
+音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2;</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>音效和動畫順序相同
+音效預先放置在Resource底下</t>
         </r>
       </text>
     </comment>
@@ -195,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="143">
   <si>
     <t>iId</t>
   </si>
@@ -348,15 +481,9 @@
     <t>Fire_Station</t>
   </si>
   <si>
-    <t>House_2</t>
-  </si>
-  <si>
     <t>School</t>
   </si>
   <si>
-    <t>Albino</t>
-  </si>
-  <si>
     <t>Grey</t>
   </si>
   <si>
@@ -372,9 +499,6 @@
     <t>Free_Racing_Car_Red</t>
   </si>
   <si>
-    <t>SlimePBR</t>
-  </si>
-  <si>
     <t>TurtleShellPBR</t>
   </si>
   <si>
@@ -482,12 +606,6 @@
   </si>
   <si>
     <t>bed_2</t>
-  </si>
-  <si>
-    <t>ChestMonsterPBR</t>
-  </si>
-  <si>
-    <t>BeholderPBR</t>
   </si>
   <si>
     <t>szDisplayAB</t>
@@ -504,19 +622,220 @@
     <t>szAnimGroup</t>
   </si>
   <si>
+    <t>iDisplayResource</t>
+  </si>
+  <si>
+    <t>ABTest</t>
+  </si>
+  <si>
+    <t>mapobj</t>
+  </si>
+  <si>
+    <t>角色範本Id</t>
+  </si>
+  <si>
+    <t>szURL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>物件預覽動畫</t>
-  </si>
-  <si>
-    <t>iDisplayResource</t>
-  </si>
-  <si>
-    <t>ABTest</t>
-  </si>
-  <si>
-    <t>mapobj</t>
-  </si>
-  <si>
-    <t>角色範本Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件動畫音效</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>szAudioSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner_sofa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bed_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChestMonsterPBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chestmonsterpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeholderPBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>beholderpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>untitled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>corner_building</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_station</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>House_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>albino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpcharacter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_racing_car_red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlimePBR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slimepbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turtleshellpbr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>house8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flying_insect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>starsparrow9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>super_spitfire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chomper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ellen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grenadier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tankfree_yel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge05_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge03_02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationlarge06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetationmedium01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ak74</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uzi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpg7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m249</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>m4_8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,10 +843,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -593,6 +912,20 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -674,17 +1007,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -727,6 +1060,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1076,35 +1410,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
+      <selection pane="topRight" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.09765625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="38.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
+    <col min="12" max="12" width="8.3984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="21" width="18.125" customWidth="1"/>
-    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="16" max="22" width="18.09765625" customWidth="1"/>
+    <col min="23" max="23" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1157,21 +1491,27 @@
         <v>16</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>38</v>
       </c>
       <c r="U1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="58.5" customHeight="1">
+    <row r="2" spans="1:23" ht="58.5" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>18</v>
@@ -1222,30 +1562,36 @@
         <v>31</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="U2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="16.5">
+    <row r="3" spans="1:23" ht="16.2">
       <c r="A3" s="4">
         <v>1000</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8">
         <v>0</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>96</v>
+      <c r="D3" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>15</v>
@@ -1286,18 +1632,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5">
+    <row r="4" spans="1:23" ht="16.2">
       <c r="A4" s="4">
         <v>1001</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>15</v>
@@ -1338,18 +1684,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5">
+    <row r="5" spans="1:23" ht="16.2">
       <c r="A5" s="4">
         <v>1002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>15</v>
@@ -1390,18 +1736,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5">
+    <row r="6" spans="1:23" ht="16.2">
       <c r="A6" s="4">
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>32</v>
@@ -1430,18 +1776,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5">
+    <row r="7" spans="1:23" ht="16.2">
       <c r="A7" s="4">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>96</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -1450,7 +1796,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5">
+    <row r="8" spans="1:23" ht="16.2">
       <c r="A8" s="4">
         <v>1005</v>
       </c>
@@ -1460,8 +1806,8 @@
       <c r="C8" s="11">
         <v>1</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>96</v>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="12"/>
       <c r="G8" s="12"/>
@@ -1477,7 +1823,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5">
+    <row r="9" spans="1:23" ht="16.2">
       <c r="A9" s="4">
         <v>1006</v>
       </c>
@@ -1487,8 +1833,8 @@
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>96</v>
+      <c r="D9" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="12"/>
       <c r="G9" s="12"/>
@@ -1504,7 +1850,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5">
+    <row r="10" spans="1:23" ht="16.2">
       <c r="A10" s="4">
         <v>1007</v>
       </c>
@@ -1514,8 +1860,8 @@
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>96</v>
+      <c r="D10" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E10" s="12"/>
       <c r="G10" s="12"/>
@@ -1531,18 +1877,18 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5">
+    <row r="11" spans="1:23" ht="16.2">
       <c r="A11" s="4">
         <v>1008</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E11" s="12"/>
       <c r="G11" s="12"/>
@@ -1558,738 +1904,738 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5">
+    <row r="12" spans="1:23" ht="16.2">
       <c r="A12" s="4">
         <v>1009</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11">
         <v>1</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>96</v>
+      <c r="D12" t="s">
+        <v>108</v>
       </c>
       <c r="T12" s="16">
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5">
+    <row r="13" spans="1:23" ht="16.2">
       <c r="A13" s="4">
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="T13" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5">
+    <row r="14" spans="1:23" ht="16.2">
       <c r="A14" s="4">
         <v>1011</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>96</v>
+      <c r="D14" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="T14" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5">
+    <row r="15" spans="1:23" ht="16.2">
       <c r="A15" s="4">
         <v>1012</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="11">
         <v>1</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>96</v>
+      <c r="D15" t="s">
+        <v>112</v>
       </c>
       <c r="T15" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5">
+    <row r="16" spans="1:23" ht="16.2">
       <c r="A16" s="4">
         <v>1013</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>96</v>
+      <c r="D16" t="s">
+        <v>113</v>
       </c>
       <c r="T16" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5">
+    <row r="17" spans="1:20" ht="16.2">
       <c r="A17" s="4">
         <v>1014</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>96</v>
+      <c r="D17" t="s">
+        <v>114</v>
       </c>
       <c r="T17" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5">
+    <row r="18" spans="1:20" ht="16.2">
       <c r="A18" s="4">
         <v>1015</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="11">
         <v>1</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>96</v>
+      <c r="D18" t="s">
+        <v>115</v>
       </c>
       <c r="T18" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5">
+    <row r="19" spans="1:20" ht="16.2">
       <c r="A19" s="4">
         <v>1016</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="T19" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5">
+    <row r="20" spans="1:20" ht="16.2">
       <c r="A20" s="4">
         <v>1017</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="11">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>96</v>
+      <c r="D20" t="s">
+        <v>118</v>
       </c>
       <c r="T20" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5">
+    <row r="21" spans="1:20" ht="16.2">
       <c r="A21" s="4">
         <v>1018</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="11">
         <v>1</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>96</v>
+      <c r="D21" t="s">
+        <v>119</v>
       </c>
       <c r="T21" s="16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5">
+    <row r="22" spans="1:20" ht="16.2">
       <c r="A22" s="4">
         <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="11">
         <v>1</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>96</v>
+      <c r="D22" t="s">
+        <v>120</v>
       </c>
       <c r="T22" s="16">
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5">
+    <row r="23" spans="1:20" ht="16.2">
       <c r="A23" s="4">
         <v>1020</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="11">
         <v>1</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>96</v>
+      <c r="D23" t="s">
+        <v>121</v>
       </c>
       <c r="T23" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5">
+    <row r="24" spans="1:20" ht="16.2">
       <c r="A24" s="4">
         <v>1021</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="19" t="s">
-        <v>96</v>
+      <c r="D24" t="s">
+        <v>122</v>
       </c>
       <c r="T24" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
+    <row r="25" spans="1:20" ht="16.2">
       <c r="A25" s="4">
         <v>1022</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C25" s="11">
         <v>1</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>96</v>
+      <c r="D25" t="s">
+        <v>123</v>
       </c>
       <c r="T25" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5">
+    <row r="26" spans="1:20" ht="16.2">
       <c r="A26" s="4">
         <v>1023</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>96</v>
+      <c r="D26" t="s">
+        <v>124</v>
       </c>
       <c r="T26" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5">
+    <row r="27" spans="1:20" ht="16.2">
       <c r="A27" s="4">
         <v>1024</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>96</v>
+      <c r="D27" t="s">
+        <v>125</v>
       </c>
       <c r="T27" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5">
+    <row r="28" spans="1:20" ht="16.2">
       <c r="A28" s="4">
         <v>1025</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C28" s="11">
         <v>1</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>96</v>
+      <c r="D28" t="s">
+        <v>126</v>
       </c>
       <c r="T28" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5">
+    <row r="29" spans="1:20" ht="16.2">
       <c r="A29" s="4">
         <v>1026</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29" s="11">
         <v>1</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>96</v>
+      <c r="D29" t="s">
+        <v>127</v>
       </c>
       <c r="T29" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5">
+    <row r="30" spans="1:20" ht="16.2">
       <c r="A30" s="4">
         <v>1027</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="11">
         <v>1</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>96</v>
+      <c r="D30" t="s">
+        <v>128</v>
       </c>
       <c r="T30" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5">
+    <row r="31" spans="1:20" ht="16.2">
       <c r="A31" s="4">
         <v>1028</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="11">
         <v>1</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>96</v>
+      <c r="D31" t="s">
+        <v>129</v>
       </c>
       <c r="T31" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
+    <row r="32" spans="1:20" ht="16.2">
       <c r="A32" s="4">
         <v>1029</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="11">
         <v>1</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>96</v>
+      <c r="D32" t="s">
+        <v>130</v>
       </c>
       <c r="T32" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5">
+    <row r="33" spans="1:20" ht="16.2">
       <c r="A33" s="4">
         <v>1030</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C33" s="11">
         <v>1</v>
       </c>
-      <c r="D33" s="19" t="s">
-        <v>96</v>
+      <c r="D33" t="s">
+        <v>131</v>
       </c>
       <c r="T33" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5">
+    <row r="34" spans="1:20" ht="16.2">
       <c r="A34" s="4">
         <v>1031</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" s="11">
         <v>1</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>96</v>
+      <c r="D34" t="s">
+        <v>132</v>
       </c>
       <c r="T34" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5">
+    <row r="35" spans="1:20" ht="16.2">
       <c r="A35" s="4">
         <v>1032</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>96</v>
+      <c r="D35" t="s">
+        <v>133</v>
       </c>
       <c r="T35" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5">
+    <row r="36" spans="1:20" ht="16.2">
       <c r="A36" s="4">
         <v>1033</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C36" s="11">
         <v>1</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>96</v>
+      <c r="D36" t="s">
+        <v>135</v>
       </c>
       <c r="T36" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5">
+    <row r="37" spans="1:20" ht="16.2">
       <c r="A37" s="4">
         <v>1034</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="11">
         <v>1</v>
       </c>
-      <c r="D37" s="19" t="s">
-        <v>96</v>
+      <c r="D37" t="s">
+        <v>134</v>
       </c>
       <c r="T37" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16.2">
       <c r="A38" s="4">
         <v>1035</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>96</v>
+      <c r="D38" t="s">
+        <v>136</v>
       </c>
       <c r="T38" s="16">
         <v>0.08</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.2">
       <c r="A39" s="4">
         <v>1036</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C39" s="11">
         <v>1</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>96</v>
+      <c r="D39" t="s">
+        <v>137</v>
       </c>
       <c r="T39" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.2">
       <c r="A40" s="4">
         <v>1037</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C40" s="11">
         <v>1</v>
       </c>
-      <c r="D40" s="19" t="s">
-        <v>96</v>
+      <c r="D40" t="s">
+        <v>68</v>
       </c>
       <c r="T40" s="16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.2">
       <c r="A41" s="4">
         <v>1038</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C41" s="11">
         <v>1</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>96</v>
+      <c r="D41" t="s">
+        <v>69</v>
       </c>
       <c r="T41" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.2">
       <c r="A42" s="4">
         <v>1039</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C42" s="11">
         <v>1</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>96</v>
+      <c r="D42" t="s">
+        <v>70</v>
       </c>
       <c r="T42" s="16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.2">
       <c r="A43" s="4">
         <v>1040</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C43" s="11">
         <v>1</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>96</v>
+      <c r="D43" t="s">
+        <v>71</v>
       </c>
       <c r="T43" s="16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.2">
       <c r="A44" s="4">
         <v>1041</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" s="11">
         <v>1</v>
       </c>
-      <c r="D44" s="19" t="s">
-        <v>96</v>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
       <c r="T44" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.2">
       <c r="A45" s="4">
         <v>1042</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" s="11">
         <v>1</v>
       </c>
-      <c r="D45" s="19" t="s">
-        <v>96</v>
+      <c r="D45" t="s">
+        <v>73</v>
       </c>
       <c r="T45" s="16">
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.2">
       <c r="A46" s="4">
         <v>1043</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C46" s="11">
         <v>1</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>96</v>
+      <c r="D46" t="s">
+        <v>74</v>
       </c>
       <c r="T46" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.2">
       <c r="A47" s="4">
         <v>1044</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" s="11">
         <v>1</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>96</v>
+      <c r="D47" t="s">
+        <v>75</v>
       </c>
       <c r="T47" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.2">
       <c r="A48" s="4">
         <v>1045</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C48" s="11">
         <v>1</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>96</v>
+      <c r="D48" t="s">
+        <v>138</v>
       </c>
       <c r="T48" s="16">
         <v>1.2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5">
+    <row r="49" spans="1:20" ht="16.2">
       <c r="A49" s="4">
         <v>1046</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C49" s="11">
         <v>1</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>96</v>
+      <c r="D49" t="s">
+        <v>139</v>
       </c>
       <c r="T49" s="16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
+    <row r="50" spans="1:20" ht="16.2">
       <c r="A50" s="4">
         <v>1047</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="11">
         <v>1</v>
       </c>
-      <c r="D50" s="19" t="s">
-        <v>96</v>
+      <c r="D50" t="s">
+        <v>140</v>
       </c>
       <c r="T50" s="16">
         <v>1.2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5">
+    <row r="51" spans="1:20" ht="16.2">
       <c r="A51" s="4">
         <v>1048</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>96</v>
+      <c r="D51" t="s">
+        <v>141</v>
       </c>
       <c r="T51" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.2">
       <c r="A52" s="4">
         <v>1049</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" s="11">
         <v>1</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>96</v>
+      <c r="D52" t="s">
+        <v>142</v>
       </c>
       <c r="T52" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5">
+    <row r="53" spans="1:20" ht="16.2">
       <c r="A53" s="4">
         <v>1050</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="11">
         <v>1</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>96</v>
+      <c r="D53" t="s">
+        <v>81</v>
       </c>
       <c r="T53" s="16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.2">
       <c r="A54">
         <v>1051</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11">
         <v>1</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="T54" s="16">
         <v>0.6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5">
+    <row r="55" spans="1:20" ht="16.2">
       <c r="T55" s="16"/>
     </row>
   </sheetData>
